--- a/data/trans_camb/P1804_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-6.028187350993826</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-9.609621329305389</v>
+        <v>-9.609621329305391</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-7.796214207158586</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.74471640457403</v>
+        <v>-9.714720093015034</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.45513155923637</v>
+        <v>-14.10724655279659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.05324227796283</v>
+        <v>-10.90777488932722</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.092579086219902</v>
+        <v>-2.918436845548704</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.291301052275587</v>
+        <v>-4.974234506274518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.091522934393181</v>
+        <v>-5.118036902312443</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.8215677052933793</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.6747681583955019</v>
+        <v>-0.674768158395502</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.7245944481275091</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9413111720550309</v>
+        <v>-0.9415072749556714</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8158249029541097</v>
+        <v>-0.8054916309211868</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8264980800068596</v>
+        <v>-0.8227523189701299</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.48351251629589</v>
+        <v>-0.4413558637016935</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4564284056135336</v>
+        <v>-0.461032784822032</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5594013371341175</v>
+        <v>-0.572749757625196</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.32422836068324</v>
+        <v>-6.576186987682813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.169750935986777</v>
+        <v>-7.026951503112199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.051078205282261</v>
+        <v>-6.097219564713137</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.11615450925574</v>
+        <v>-2.45824379307732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.188329855926112</v>
+        <v>-1.95012674538477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.806949942622335</v>
+        <v>-2.703692366268864</v>
       </c>
     </row>
     <row r="13">
@@ -741,10 +741,10 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8641038252211128</v>
+        <v>-0.855959341341361</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9011514556157194</v>
+        <v>-0.8971813275170669</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4785981724990362</v>
+        <v>-0.6352070250480485</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3618440250444258</v>
+        <v>-0.3279527982119189</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5781193100609884</v>
+        <v>-0.5306018226972063</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>3.584747293865344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.576577372111374</v>
+        <v>2.576577372111375</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.08166000006195</v>
+        <v>-1.091961350129827</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4188799511996288</v>
+        <v>0.2010731886236851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6039526649802323</v>
+        <v>0.4050869850523926</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.573338283264694</v>
+        <v>3.875996290375861</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.179409964999015</v>
+        <v>6.660519824214446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.532000256314328</v>
+        <v>4.75751080495465</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>0.8320109891710936</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7769404231532507</v>
+        <v>0.776940423153251</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3716879828056457</v>
+        <v>-0.3486835223272271</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0301993948505347</v>
+        <v>-0.001547980623911606</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1437851089371669</v>
+        <v>0.04868886986618864</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.852668712881243</v>
+        <v>3.491775853091958</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.663299438905776</v>
+        <v>2.535511082455169</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.059700683211267</v>
+        <v>1.977940475184676</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>12.9879639711344</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.645703526345502</v>
+        <v>4.645703526345507</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.715983369239099</v>
+        <v>8.715983369239094</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.52063790768748</v>
+        <v>5.522112650406974</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.342414352979934</v>
+        <v>-1.466581008332352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.963008217843725</v>
+        <v>3.441061960668486</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.34016655408888</v>
+        <v>20.58987958403329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.2799200146799</v>
+        <v>12.01855870984676</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.11899363991759</v>
+        <v>13.27423996905722</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.608806854398149</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1580565245253429</v>
+        <v>0.1580565245253431</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3424043861272898</v>
+        <v>0.3424043861272896</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2152247272396496</v>
+        <v>0.2316183974618387</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07202713829447792</v>
+        <v>-0.04559115558726518</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1474065432186639</v>
+        <v>0.1212758374105616</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.098331741590901</v>
+        <v>1.113708153397439</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4359194279755521</v>
+        <v>0.4785162359538069</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6099158745241021</v>
+        <v>0.5649283106862218</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.219913087656741</v>
+        <v>-5.085338759547485</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.270761615544723</v>
+        <v>-7.143440355843396</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.281766264432456</v>
+        <v>-5.203675441709662</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.02166644453193142</v>
+        <v>0.1007134778686022</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4465110728232725</v>
+        <v>-0.6553999823099915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.011953326721863</v>
+        <v>-0.8429551258788985</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8764094289658667</v>
+        <v>-0.8705768468908363</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8609437787221388</v>
+        <v>-0.8486924790880197</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3811486978119181</v>
+        <v>0.5117167236982897</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01286649873511778</v>
+        <v>-0.05994870318094224</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3091067630772994</v>
+        <v>-0.2583249209039975</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>6.087622417809791</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6.872820240414324</v>
+        <v>6.872820240414319</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>6.433688044439201</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.06903294548985</v>
+        <v>4.217439902778722</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.506425276566512</v>
+        <v>3.247173328867069</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.052403408909623</v>
+        <v>4.205915280530003</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.912736149744587</v>
+        <v>9.166175658032287</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.34888565310702</v>
+        <v>10.46953205226951</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.656740063429092</v>
+        <v>8.921011048490527</v>
       </c>
     </row>
     <row r="37">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D37" s="6" t="n">
-        <v>2.625636957212515</v>
+        <v>2.625636957212514</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4.825826714718332</v>
@@ -1165,10 +1165,10 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>0.5599716883569897</v>
+        <v>0.7310183378934183</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.465901847206031</v>
+        <v>1.577631597589169</v>
       </c>
     </row>
     <row r="39">
@@ -1180,10 +1180,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>7.28585225703292</v>
+        <v>8.173798556026997</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>12.48821856940988</v>
+        <v>14.45062325228007</v>
       </c>
     </row>
     <row r="40">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.8248374571308698</v>
+        <v>0.8248374571308704</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.112733773220064</v>
+        <v>2.112733773220062</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1.495583096949251</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.969132956882537</v>
+        <v>-1.603051004762776</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5266106690506178</v>
+        <v>-0.7552930809145597</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.166348609324409</v>
+        <v>-0.475429384282836</v>
       </c>
     </row>
     <row r="42">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.302188138265655</v>
+        <v>3.609301306610376</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.23978440207587</v>
+        <v>4.890534986447529</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.427250633294443</v>
+        <v>3.266579971283941</v>
       </c>
     </row>
     <row r="43">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.1718253822633486</v>
+        <v>0.1718253822633487</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.2988518079628018</v>
+        <v>0.2988518079628014</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.2507596294633669</v>
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3496608320153264</v>
+        <v>-0.2732621624635128</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06385157868367862</v>
+        <v>-0.09980358309614955</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.03712081970037365</v>
+        <v>-0.07651273227114064</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.874288777641822</v>
+        <v>1.054670521653732</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.953288993299829</v>
+        <v>0.8904739183619422</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6459477541999702</v>
+        <v>0.6616406901576134</v>
       </c>
     </row>
     <row r="46">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.967210650723036</v>
+        <v>-5.980467565170755</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-10.0243739950752</v>
+        <v>-10.08770970642746</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.292999556433132</v>
+        <v>-7.261223546828447</v>
       </c>
     </row>
     <row r="48">
@@ -1338,13 +1338,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.234482282821045</v>
+        <v>-2.103910691811167</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.949640898122143</v>
+        <v>-5.173228381792904</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-4.285174763360522</v>
+        <v>-4.248849451139311</v>
       </c>
     </row>
     <row r="49">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8445206633276066</v>
+        <v>-0.8549740507856942</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8384103630256683</v>
+        <v>-0.8437575259801513</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8161905181437792</v>
+        <v>-0.8087438347048733</v>
       </c>
     </row>
     <row r="51">
@@ -1389,13 +1389,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4460784545901669</v>
+        <v>-0.4464577635114345</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5786921951895604</v>
+        <v>-0.610698182363317</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.6132918922415687</v>
+        <v>-0.6137592853123396</v>
       </c>
     </row>
     <row r="52">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>-0.1085852915590074</v>
+        <v>-0.1085852915590088</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>-1.40239174323923</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.7633747619532033</v>
+        <v>-0.7633747619532048</v>
       </c>
     </row>
     <row r="53">
@@ -1427,13 +1427,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.291477466427051</v>
+        <v>-1.40907480363373</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.752699249751227</v>
+        <v>-2.770817681206065</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.712036007379518</v>
+        <v>-1.699141021503497</v>
       </c>
     </row>
     <row r="54">
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.107426262537332</v>
+        <v>1.074790022944455</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.1229214145926038</v>
+        <v>-0.0440092327764405</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.1401695780248991</v>
+        <v>0.06970157186547858</v>
       </c>
     </row>
     <row r="55">
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>-0.01724822615795825</v>
+        <v>-0.01724822615795847</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>-0.1412533351233798</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.09365251377809036</v>
+        <v>-0.09365251377809053</v>
       </c>
     </row>
     <row r="56">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1902423893228806</v>
+        <v>-0.2041990039370941</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2561509759102118</v>
+        <v>-0.2582999615678301</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1972668878945052</v>
+        <v>-0.1983708271585776</v>
       </c>
     </row>
     <row r="57">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1881425976414954</v>
+        <v>0.186363133481439</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.01123874505591579</v>
+        <v>-1.132331735555626e-05</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.01930490416229498</v>
+        <v>0.01030274508968927</v>
       </c>
     </row>
     <row r="58">
